--- a/Data_2024_SplitNodes.xlsx
+++ b/Data_2024_SplitNodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/tannerstaggs_ufl_edu/Documents/Code/dmor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{1A79DE08-E64C-4EC9-8B20-93DD2DBD099F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F3C988D-DB23-4E6C-972C-78ACFA71BCC8}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{9C69473B-07EE-4FFB-B6E1-CEA4DC8D3AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F23346E0-8DDD-4E26-8ACC-E9E8A8DA8CEE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{60757EBA-C529-5F4C-8302-EB839AC736F4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
   <si>
     <t>X</t>
   </si>
@@ -243,6 +243,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86121C4-7FFA-6E4A-8664-A842C38542F2}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1193,7 +1197,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>-97.99</v>
@@ -1202,10 +1206,10 @@
         <v>67.34</v>
       </c>
       <c r="D22" s="4">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="4">
-        <v>32</v>
+        <v>62.499999999999993</v>
       </c>
       <c r="F22" s="2">
         <v>0.72013888888888888</v>
@@ -1221,87 +1225,87 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>21.2</v>
-      </c>
-      <c r="B23" s="3">
-        <v>-97.99</v>
-      </c>
-      <c r="C23" s="3">
-        <v>67.34</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5000</v>
-      </c>
-      <c r="E23" s="4">
-        <v>32</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.72013888888888888</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.93125000000000002</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20">
+        <v>-66.239999999999995</v>
+      </c>
+      <c r="C23" s="20">
+        <v>47.94</v>
+      </c>
+      <c r="D23" s="21">
+        <v>4750</v>
+      </c>
+      <c r="E23" s="21">
+        <v>27.777777777777779</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0.66805555555555551</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0.87638888888888899</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>49.66</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-9.73</v>
+      </c>
+      <c r="D24" s="4">
+        <v>6500</v>
+      </c>
+      <c r="E24" s="4">
+        <v>41.666666666666664</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="19">
-        <v>22</v>
-      </c>
-      <c r="B24" s="20">
-        <v>-66.239999999999995</v>
-      </c>
-      <c r="C24" s="20">
-        <v>47.94</v>
-      </c>
-      <c r="D24" s="21">
-        <v>4750</v>
-      </c>
-      <c r="E24" s="21">
-        <v>27.777777777777779</v>
-      </c>
-      <c r="F24" s="22">
-        <v>0.66805555555555551</v>
-      </c>
-      <c r="G24" s="22">
-        <v>0.87638888888888899</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>49.66</v>
+        <v>66.59</v>
       </c>
       <c r="C25" s="3">
-        <v>-9.73</v>
+        <v>-84.24</v>
       </c>
       <c r="D25" s="4">
-        <v>6500</v>
+        <v>6750</v>
       </c>
       <c r="E25" s="4">
         <v>41.666666666666664</v>
       </c>
       <c r="F25" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.81805555555555554</v>
       </c>
       <c r="G25" s="2">
-        <v>0.91666666666666663</v>
+        <v>0.86875000000000002</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>11</v>
@@ -1309,25 +1313,25 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>66.59</v>
+        <v>9.82</v>
       </c>
       <c r="C26" s="3">
-        <v>-84.24</v>
+        <v>22.22</v>
       </c>
       <c r="D26" s="4">
-        <v>6750</v>
+        <v>11250</v>
       </c>
       <c r="E26" s="4">
-        <v>41.666666666666664</v>
+        <v>62.499999999999993</v>
       </c>
       <c r="F26" s="2">
-        <v>0.81805555555555554</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="G26" s="2">
-        <v>0.86875000000000002</v>
+        <v>0.73402777777777783</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>6</v>
@@ -1338,54 +1342,54 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>9.82</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="C27" s="3">
-        <v>22.22</v>
+        <v>-6.1</v>
       </c>
       <c r="D27" s="4">
-        <v>11250</v>
+        <v>7500</v>
       </c>
       <c r="E27" s="4">
-        <v>62.499999999999993</v>
+        <v>48.611111111111114</v>
       </c>
       <c r="F27" s="2">
-        <v>0.55902777777777779</v>
+        <v>6.8749999999999992E-2</v>
       </c>
       <c r="G27" s="2">
-        <v>0.73402777777777783</v>
+        <v>0.14791666666666667</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3">
-        <v>38.450000000000003</v>
+        <v>-24.67</v>
       </c>
       <c r="C28" s="3">
-        <v>-6.1</v>
+        <v>-77.81</v>
       </c>
       <c r="D28" s="4">
-        <v>7500</v>
+        <v>2500</v>
       </c>
       <c r="E28" s="4">
-        <v>48.611111111111114</v>
+        <v>13.888888888888889</v>
       </c>
       <c r="F28" s="2">
-        <v>6.8749999999999992E-2</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="G28" s="2">
-        <v>0.14791666666666667</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>6</v>
@@ -1396,28 +1400,28 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>-24.67</v>
+        <v>5.55</v>
       </c>
       <c r="C29" s="3">
-        <v>-77.81</v>
+        <v>88.13</v>
       </c>
       <c r="D29" s="4">
-        <v>2500</v>
+        <v>3750</v>
       </c>
       <c r="E29" s="4">
-        <v>13.888888888888889</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="F29" s="2">
-        <v>0.22222222222222221</v>
+        <v>0.31180555555555556</v>
       </c>
       <c r="G29" s="2">
-        <v>0.27777777777777779</v>
+        <v>0.44722222222222219</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>10</v>
@@ -1425,355 +1429,355 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3">
-        <v>5.55</v>
+        <v>85.59</v>
       </c>
       <c r="C30" s="3">
-        <v>88.13</v>
+        <v>14.86</v>
       </c>
       <c r="D30" s="4">
-        <v>3750</v>
+        <v>11000</v>
       </c>
       <c r="E30" s="4">
-        <v>20.833333333333332</v>
+        <v>62.499999999999993</v>
       </c>
       <c r="F30" s="2">
-        <v>0.31180555555555556</v>
+        <v>0.60624999999999996</v>
       </c>
       <c r="G30" s="2">
-        <v>0.44722222222222219</v>
+        <v>0.68402777777777779</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3">
-        <v>85.59</v>
+        <v>89.28</v>
       </c>
       <c r="C31" s="3">
-        <v>14.86</v>
+        <v>89.99</v>
       </c>
       <c r="D31" s="4">
-        <v>11000</v>
+        <v>3250</v>
       </c>
       <c r="E31" s="4">
-        <v>62.499999999999993</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="F31" s="2">
-        <v>0.60624999999999996</v>
+        <v>0.15347222222222223</v>
       </c>
       <c r="G31" s="2">
-        <v>0.68402777777777779</v>
+        <v>0.29791666666666666</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3">
-        <v>89.28</v>
-      </c>
-      <c r="C32" s="3">
-        <v>89.99</v>
-      </c>
-      <c r="D32" s="4">
-        <v>3250</v>
-      </c>
-      <c r="E32" s="4">
-        <v>20.833333333333332</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0.15347222222222223</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.29791666666666666</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>10</v>
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15">
+        <v>-47.88</v>
+      </c>
+      <c r="C32" s="15">
+        <v>76.3</v>
+      </c>
+      <c r="D32" s="16">
+        <v>8250</v>
+      </c>
+      <c r="E32" s="16">
+        <v>48.611111111111114</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0.67152777777777772</v>
+      </c>
+      <c r="G32" s="17">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
-        <v>31</v>
-      </c>
-      <c r="B33" s="15">
-        <v>-47.88</v>
-      </c>
-      <c r="C33" s="15">
-        <v>76.3</v>
-      </c>
-      <c r="D33" s="16">
-        <v>8250</v>
-      </c>
-      <c r="E33" s="16">
-        <v>48.611111111111114</v>
-      </c>
-      <c r="F33" s="17">
-        <v>0.67152777777777772</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0.74513888888888891</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="18" t="s">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-47.07</v>
+      </c>
+      <c r="D33" s="4">
+        <v>12000</v>
+      </c>
+      <c r="E33" s="4">
+        <v>69.444444444444443</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.58263888888888893</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0.70763888888888893</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3">
-        <v>19.899999999999999</v>
+        <v>11.24</v>
       </c>
       <c r="C34" s="3">
-        <v>-47.07</v>
+        <v>62.22</v>
       </c>
       <c r="D34" s="4">
-        <v>12000</v>
+        <v>3250</v>
       </c>
       <c r="E34" s="4">
-        <v>69.444444444444443</v>
+        <v>20.833333333333332</v>
       </c>
       <c r="F34" s="2">
-        <v>0.58263888888888893</v>
+        <v>0.30416666666666664</v>
       </c>
       <c r="G34" s="2">
-        <v>0.70763888888888893</v>
+        <v>0.43472222222222223</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3">
-        <v>11.24</v>
-      </c>
-      <c r="C35" s="3">
-        <v>62.22</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3250</v>
-      </c>
-      <c r="E35" s="4">
-        <v>20.833333333333332</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0.30416666666666664</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0.43472222222222223</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="5" t="s">
+      <c r="A35" s="14">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="C35" s="15">
+        <v>88.32</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1250</v>
+      </c>
+      <c r="E35" s="16">
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0.78125</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3">
+        <v>79.239999999999995</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-44.43</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E36" s="4">
+        <v>13.888888888888889</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.4458333333333333</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="14">
-        <v>34</v>
-      </c>
-      <c r="B36" s="15">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="C36" s="15">
-        <v>88.32</v>
-      </c>
-      <c r="D36" s="16">
-        <v>1250</v>
-      </c>
-      <c r="E36" s="16">
-        <v>6.9444444444444446</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0.78125</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0.88124999999999998</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3">
-        <v>79.239999999999995</v>
-      </c>
-      <c r="C37" s="3">
-        <v>-44.43</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1500</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>-99.97</v>
+      </c>
+      <c r="C37" s="10">
+        <v>27.93</v>
+      </c>
+      <c r="D37" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="11">
         <v>13.888888888888889</v>
       </c>
-      <c r="F37" s="2">
-        <v>0.29375000000000001</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0.4458333333333333</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="5" t="s">
+      <c r="F37" s="12">
+        <v>0.67222222222222228</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-60.47</v>
+      </c>
+      <c r="D38" s="4">
+        <v>5750</v>
+      </c>
+      <c r="E38" s="4">
+        <v>34.722222222222221</v>
+      </c>
+      <c r="F38" s="2">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.20277777777777778</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="9">
-        <v>36</v>
-      </c>
-      <c r="B38" s="10">
-        <v>-99.97</v>
-      </c>
-      <c r="C38" s="10">
-        <v>27.93</v>
-      </c>
-      <c r="D38" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E38" s="11">
-        <v>13.888888888888889</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0.67222222222222228</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0.7944444444444444</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>1.01</v>
+        <v>-51.98</v>
       </c>
       <c r="C39" s="3">
-        <v>-60.47</v>
+        <v>-42.88</v>
       </c>
       <c r="D39" s="4">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="E39" s="4">
-        <v>34.722222222222221</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="F39" s="2">
-        <v>4.6527777777777779E-2</v>
+        <v>0.53055555555555556</v>
       </c>
       <c r="G39" s="2">
-        <v>0.20277777777777778</v>
+        <v>0.67013888888888884</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>-51.98</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="C40" s="3">
-        <v>-42.88</v>
+        <v>-23.44</v>
       </c>
       <c r="D40" s="4">
         <v>8750</v>
       </c>
       <c r="E40" s="4">
-        <v>55.555555555555557</v>
+        <v>48.611111111111114</v>
       </c>
       <c r="F40" s="2">
-        <v>0.53055555555555556</v>
+        <v>0.24513888888888888</v>
       </c>
       <c r="G40" s="2">
-        <v>0.67013888888888884</v>
+        <v>0.40069444444444446</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40.1</v>
       </c>
       <c r="B41" s="3">
-        <v>8.7100000000000009</v>
+        <v>-82.64</v>
       </c>
       <c r="C41" s="3">
-        <v>-23.44</v>
+        <v>87.2</v>
       </c>
       <c r="D41" s="4">
-        <v>8750</v>
+        <v>5250</v>
       </c>
       <c r="E41" s="4">
-        <v>48.611111111111114</v>
+        <v>32</v>
       </c>
       <c r="F41" s="2">
-        <v>0.24513888888888888</v>
+        <v>0.56597222222222221</v>
       </c>
       <c r="G41" s="2">
-        <v>0.40069444444444446</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>40.1</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="B42" s="3">
         <v>-82.64</v>
@@ -1782,10 +1786,10 @@
         <v>87.2</v>
       </c>
       <c r="D42" s="4">
-        <v>10500</v>
+        <v>5250</v>
       </c>
       <c r="E42" s="4">
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="F42" s="2">
         <v>0.56597222222222221</v>
@@ -1801,33 +1805,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="B43" s="3">
-        <v>-82.64</v>
-      </c>
-      <c r="C43" s="3">
-        <v>87.2</v>
-      </c>
-      <c r="D43" s="5">
-        <v>5250</v>
-      </c>
-      <c r="E43" s="6">
-        <v>31.5</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.56597222222222221</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D44" s="6"/>
